--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3679381.769301516</v>
+        <v>3673660.157333631</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095088</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>283.0641904178262</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>300.8672670975492</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>126.7632886126195</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>174.9723186877832</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.4936872159399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>122.7253106933296</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>315.088348311143</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.95552223328</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292603</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>102.8228810500187</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.26790245020096</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>212.6652167733026</v>
+        <v>36.02766158664641</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292558</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881756</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.5968754185111</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868248605</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734095362</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983798</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.61585847486434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292558</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881756</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.5968754185111</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247726</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734179433</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>134.0393882137481</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>152.0684032264861</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292558</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881756</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.5968754185111</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247726</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734095362</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492269</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>94.29644372183272</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314418</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873202</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881757</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>13.73530533531631</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>17.41027617551598</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.9959758613063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>28.87187436015466</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.2484904088809</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
-        <v>151.6357257070995</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>156.5892371762715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>186.3024408221179</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>73.79352406125265</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>493.3323824897458</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,37 +4658,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.2861479534</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.323631012988</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1160.323631012988</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1160.323631012988</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>749.3377262233805</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>331.3739181215674</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2105.214675620634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1915.885988017521</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4895,31 +4895,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.058578925876</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M11" t="n">
-        <v>2265.590483597801</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N11" t="n">
-        <v>2812.369300656583</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986038</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1674.827124689058</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>1385.409954652097</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>1302.311063288258</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089261</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,10 +5357,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.6776738607302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5475,13 +5475,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>694.4598039022776</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X16" t="n">
-        <v>466.4702530042603</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.6776738607302</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089253</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277737</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563074</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811485</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483411</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542194</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232729</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679676</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973283</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432162013</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.20533355495</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494945</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763795</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089976</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468652</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390122</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193602</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320265</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426855</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902959</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.10246054956</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142076</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635556</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313412</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447827</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216085</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487883</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828235</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517396</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.6192812500589</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>658.6192812500589</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>508.5026418377231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>360.58954825533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.58954825533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953303</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442072</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.230648292704</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104708</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104708</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674234</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799878</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593991</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570301</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590127</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>658.6192812500589</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089253</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277737</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924152</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.866738172562</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844488</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903271</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232728</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679675</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188664</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763706</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390122</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193602</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320265</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426855</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902959</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.10246054956</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.0071782166655</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C22" t="n">
-        <v>381.0709952887586</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D22" t="n">
-        <v>230.9543558764229</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953303</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442072</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.230648292704</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104708</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931534</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501061</v>
+        <v>1802.739018401182</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501061</v>
+        <v>1513.636151526826</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295174</v>
+        <v>1258.951663320939</v>
       </c>
       <c r="W22" t="n">
-        <v>998.7893082582129</v>
+        <v>969.5344932839785</v>
       </c>
       <c r="X22" t="n">
-        <v>770.7997573601956</v>
+        <v>741.5449423859611</v>
       </c>
       <c r="Y22" t="n">
-        <v>550.0071782166655</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001581</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089254</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074206</v>
+        <v>351.3014367967937</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972682</v>
+        <v>685.1208104866399</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750624</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580455</v>
+        <v>2528.189928969823</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420598</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750054</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107233</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862916</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161923</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494856</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763706</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390122</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193601</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320265</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454335</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426846</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.46090290295</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142067</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3479.484139738398</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>3310.547956810491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>3160.431317398155</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>3012.518223815762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>3012.518223815762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210341</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159218</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607715</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207265</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.50432691313</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833545</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267204</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419719</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419719</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816071</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>4364.599222816071</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V25" t="n">
-        <v>4109.914734610184</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W25" t="n">
-        <v>4109.914734610184</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X25" t="n">
-        <v>3881.925183712167</v>
+        <v>391.8664332433616</v>
       </c>
       <c r="Y25" t="n">
-        <v>3661.132604568637</v>
+        <v>171.0738540998315</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,64 +6214,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600159</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>508.0400813400983</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
         <v>339.1038984121913</v>
@@ -6381,16 +6381,16 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1630.872347638509</v>
+        <v>1445.473983799872</v>
       </c>
       <c r="V28" t="n">
-        <v>1630.872347638509</v>
+        <v>1427.887846248846</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.455177601548</v>
+        <v>1138.470676211885</v>
       </c>
       <c r="X28" t="n">
-        <v>1341.455177601548</v>
+        <v>910.4811253138681</v>
       </c>
       <c r="Y28" t="n">
-        <v>1120.662598458018</v>
+        <v>689.688546170338</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1622.425187676631</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.4238276939707</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C31" t="n">
-        <v>706.4876447660638</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D31" t="n">
-        <v>556.371005353728</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="G31" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.788099626699</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1253.788099626699</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>1032.995520483169</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,19 +6703,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,40 +6779,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>974.4454116758762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.6435265574</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1100.959038351514</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1100.959038351514</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1100.959038351514</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.259539097266</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
         <v>1005.387693892251</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1521.659724984916</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1232.55685811056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>977.8723699046727</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>688.4551998677121</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>688.4551998677121</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>688.4551998677121</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.259539097266</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4338.82776704361</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7256,13 +7256,13 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7277,16 +7277,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
         <v>95.56103444839442</v>
@@ -7332,13 +7332,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
         <v>1005.387693892251</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230346</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024459</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.138940987498</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>964.9679943448</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.1754152012699</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,19 +7396,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,28 +7417,28 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7505,25 +7505,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.822894557956</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1354.706682842351</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1100.022194636464</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>810.6050245995034</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>582.6154737014861</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.822894557956</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M44" t="n">
-        <v>2368.748013620957</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>3348.500285847604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7675,25 +7675,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7739,28 +7739,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1179.249186433515</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>889.8320163965544</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>889.8320163965544</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.8320163965544</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>345.3140082169171</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476726</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-5.23229966764913e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149560911</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.866975302579697e-12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>67.5366377670444</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>189.7998007892518</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>19.79750571619365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>374.169394802195</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400276</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.53663776704414</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>226.768859619311</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.20292720900957</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.4417529388362</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>73.8577815632884</v>
+        <v>250.4953367499446</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004715</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314418</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.9687948772305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>12.39457443282103</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983798</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004715</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>67.48054604968306</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270146</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>71.72936453719551</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983798</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>272.4765328702966</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>234.727367148312</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.83600432063096</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>137.1539338988736</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.5834897730564</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
-        <v>67.91322356906966</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>69.12041821276566</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>99.90939738349493</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>178.3441192625754</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244625</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>734601.305740919</v>
+      </c>
+      <c r="G2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="H2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="I2" t="n">
         <v>734601.3057409193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="G2" t="n">
-        <v>734601.3057409187</v>
-      </c>
-      <c r="H2" t="n">
-        <v>734601.305740919</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="J2" t="n">
-        <v>734601.3057409194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>734601.3057409193</v>
-      </c>
       <c r="L2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="M2" t="n">
         <v>734601.3057409192</v>
-      </c>
-      <c r="M2" t="n">
-        <v>734601.3057409193</v>
       </c>
       <c r="N2" t="n">
         <v>734601.3057409193</v>
       </c>
       <c r="O2" t="n">
-        <v>734601.3057409188</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="P2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409192</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.827827418310335e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925914</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918978</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918977</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918982</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918998</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918994</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.5182537137</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.5182537137</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371367</v>
-      </c>
       <c r="J5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061936</v>
+        <v>-96712.0070106198</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.8722039249</v>
+        <v>493255.872203925</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.8722039248</v>
+        <v>493255.872203925</v>
       </c>
       <c r="E6" t="n">
-        <v>-107308.1188253908</v>
+        <v>-107980.073727649</v>
       </c>
       <c r="F6" t="n">
-        <v>620069.2951680156</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="G6" t="n">
-        <v>620069.2951680133</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="H6" t="n">
-        <v>620069.2951680155</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="I6" t="n">
-        <v>620069.2951680159</v>
+        <v>619397.3402657582</v>
       </c>
       <c r="J6" t="n">
-        <v>443646.0759754244</v>
+        <v>442974.1210731648</v>
       </c>
       <c r="K6" t="n">
-        <v>620069.2951680159</v>
+        <v>619397.3402657574</v>
       </c>
       <c r="L6" t="n">
-        <v>620069.2951680156</v>
+        <v>619397.3402657576</v>
       </c>
       <c r="M6" t="n">
-        <v>490426.9803290709</v>
+        <v>489755.0254268128</v>
       </c>
       <c r="N6" t="n">
-        <v>620069.2951680158</v>
+        <v>619397.3402657579</v>
       </c>
       <c r="O6" t="n">
-        <v>620069.2951680149</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="P6" t="n">
-        <v>620069.2951680155</v>
+        <v>619397.3402657578</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,13 +26752,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593301</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593301</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593301</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.090984398481041e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>130.7199796029687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>48.37370161986377</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>159.5185856293582</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>194.7587819906859</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.74425144011366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>201.1974620710275</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>54.64275236732607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>6.18212109054798</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681607</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844677</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974803</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953996</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003822</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623208</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490575011</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095039</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099075</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746427</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.09999467817</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563575</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806972</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451124</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345285</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502571</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798536</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752274</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353165</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138806</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837937</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002936</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987493</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905544</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238325</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898517</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462218</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430542</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311883</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742031</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297393</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702029</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098826</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316439</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883121</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086007</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802174</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895884</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712234</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553043</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112314</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780297</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681607</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844677</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974803</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953996</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003822</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623208</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490575011</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095039</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099075</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746427</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.09999467817</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563575</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806972</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451124</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345285</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502571</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798536</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752274</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353165</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138806</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837937</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002936</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987493</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905544</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238325</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898517</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462218</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430542</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311883</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742031</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297393</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702029</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098826</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316439</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883121</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086007</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802174</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895884</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712234</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553043</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112314</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780297</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681607</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844677</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974803</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953996</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003822</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623208</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490575011</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095039</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099075</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746427</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.09999467817</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563575</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806972</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451124</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345285</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502571</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798536</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752274</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353165</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138806</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233396</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837937</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970261</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002936</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987493</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905544</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238325</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898517</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462218</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430542</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311883</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742031</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297393</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702029</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098826</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316439</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883121</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086007</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802174</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895884</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712234</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553043</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112314</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780297</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.647816683794</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.9041226092493</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35430,10 +35430,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407871</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265664</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923335</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302284</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129131</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845358933</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908558</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636252</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152078</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597756</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609575</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340065</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013304</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004605</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525817</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859634</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127278</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306654</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443201</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701988</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934845</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675407</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226403</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451109</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.394238537894</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407871</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015114928</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923335</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302284</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129131</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509661</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908558</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636252</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152078</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597756</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609575</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340065</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013304</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004605</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525817</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859634</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127278</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306654</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443201</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701988</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934845</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675407</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226403</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451109</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.394238537894</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687134</v>
+        <v>258.3236387357568</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554016</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L23" t="n">
-        <v>873.251328942784</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230609</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N23" t="n">
-        <v>742.1016362021649</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509661</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193731</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037205</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222535</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597756</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609575</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340065</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013213</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004605</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525817</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859634</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127278</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306654</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443201</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701988</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934845</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675407</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226403</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451109</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.394238537894</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>558.7186215464202</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>882.2223956904141</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282465</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004607</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>734.8218605075301</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3673660.157333631</v>
+        <v>3677065.648458079</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>283.0641904178262</v>
+        <v>337.5425929926382</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>41.86825775617202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>315.088348311143</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>88.552858989735</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>102.8228810500187</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,10 +1824,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W16" t="n">
-        <v>36.02766158664641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>152.0684032264861</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492269</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873202</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>17.41027617551598</v>
+        <v>179.0530003794247</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>28.87187436015466</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>174.7964978066198</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>82.39501537729602</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.280804219765</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C2" t="n">
-        <v>904.3182872793534</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D2" t="n">
-        <v>904.3182872793534</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="E2" t="n">
-        <v>904.3182872793534</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="F2" t="n">
-        <v>493.3323824897458</v>
+        <v>548.3610719592527</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4828,22 +4828,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="X8" t="n">
         <v>2105.214675620634</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5047,22 +5047,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.3587133864212</v>
+        <v>795.9349770789274</v>
       </c>
       <c r="C13" t="n">
-        <v>199.4225304585143</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>199.4225304585143</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>199.4225304585143</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>199.4225304585143</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1288.206478295169</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>998.7893082582084</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X13" t="n">
-        <v>770.7997573601911</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.0071782166609</v>
+        <v>977.5834419091672</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>872.881576818092</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>644.8920259200746</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.0994467765445</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5521,13 +5521,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5828,16 +5828,16 @@
         <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1802.739018401182</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1513.636151526826</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1258.951663320939</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>969.5344932839785</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>741.5449423859611</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>520.752363242431</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5983,58 +5983,58 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>351.3014367967937</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>685.1208104866399</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1549.639626139994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2528.189928969823</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196469</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6147,13 +6147,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6165,34 +6165,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384226</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783395</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413789</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433616</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998315</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277727</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.60335981148</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>508.0400813400983</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C28" t="n">
-        <v>339.1038984121913</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D28" t="n">
-        <v>339.1038984121913</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>339.1038984121913</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799872</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>1427.887846248846</v>
+        <v>1775.48184955983</v>
       </c>
       <c r="W28" t="n">
-        <v>1138.470676211885</v>
+        <v>1486.06467952287</v>
       </c>
       <c r="X28" t="n">
-        <v>910.4811253138681</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y28" t="n">
-        <v>689.688546170338</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>270.9417306852383</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>270.9417306852383</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>270.9417306852383</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>270.9417306852383</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>270.9417306852383</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.5901955154781</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,19 +6703,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6934,55 +6934,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7277,16 +7277,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7426,22 +7426,22 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7487,22 +7487,22 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7727,10 +7727,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
         <v>794.200663232024</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.5366377670444</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476849</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>388.4310778980899</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>374.169394802195</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>226.7688596193101</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.69396210889283</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.20292720900957</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W16" t="n">
-        <v>250.4953367499446</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410508</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>67.48054604968306</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270146</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>234.727367148312</v>
+        <v>73.08464294440333</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>137.1539338988736</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>77.34114551720816</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="9">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>734601.3057409194</v>
+      </c>
+      <c r="F2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>734601.305740919</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>734601.3057409193</v>
+      </c>
+      <c r="I2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="H2" t="n">
-        <v>734601.3057409192</v>
-      </c>
-      <c r="I2" t="n">
-        <v>734601.3057409193</v>
-      </c>
       <c r="J2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="K2" t="n">
         <v>734601.3057409192</v>
@@ -26349,10 +26349,10 @@
         <v>734601.3057409192</v>
       </c>
       <c r="N2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="O2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="P2" t="n">
         <v>734601.3057409192</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918994</v>
@@ -26493,22 +26493,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.0070106198</v>
+        <v>-96712.00701061953</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039249</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039249</v>
       </c>
       <c r="E6" t="n">
-        <v>-107980.073727649</v>
+        <v>-107375.3143156166</v>
       </c>
       <c r="F6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="G6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="H6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777901</v>
       </c>
       <c r="I6" t="n">
-        <v>619397.3402657582</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="J6" t="n">
-        <v>442974.1210731648</v>
+        <v>443578.8804851965</v>
       </c>
       <c r="K6" t="n">
-        <v>619397.3402657574</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="L6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="M6" t="n">
-        <v>489755.0254268128</v>
+        <v>490359.7848388451</v>
       </c>
       <c r="N6" t="n">
-        <v>619397.3402657579</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="O6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="P6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777898</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.7199796029687</v>
+        <v>76.24157702815683</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>174.5800626014858</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>54.64275236732607</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,37 +32779,37 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32818,7 +32818,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32867,16 +32867,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
         <v>300.7247737883114</v>
@@ -32885,19 +32885,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780294</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.3236387357568</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882189</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407862</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923318</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359038</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.109295463624</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>940.7329133110014</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37071,22 +37071,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>882.2223956904141</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37314,22 +37314,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>734.8218605075292</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
